--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc Bright\Documents\GI-KACE\UNESCO_DATA_ANALYTICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F378A9C2-2E44-461E-B738-54B3925A7B4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88ACD6C-B742-4698-9085-ADDA09DE4148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{ED304310-22EF-4ED3-AD9E-E130A594F228}"/>
   </bookViews>
